--- a/excel_files/demo/insert_multiple_admin.xlsx
+++ b/excel_files/demo/insert_multiple_admin.xlsx
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -435,6 +435,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -799,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
@@ -809,12 +812,12 @@
       <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -826,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
@@ -868,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
@@ -910,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
@@ -952,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
@@ -994,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="4" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="4" t="s">
         <v>16</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="4" t="s">
         <v>16</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="4" t="s">
         <v>16</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="4" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="4" t="s">
         <v>16</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="4" t="s">
         <v>16</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="4" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="4" t="s">
         <v>16</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="4" t="s">
         <v>16</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="4" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="4" t="s">
         <v>16</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="4" t="s">
         <v>16</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="4" t="s">
         <v>16</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="4" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="4" t="s">
         <v>16</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="4" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="4" t="s">
         <v>16</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="F48" s="18"/>
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="F49" s="18"/>
       <c r="G49" s="4" t="s">
         <v>16</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="4" t="s">
         <v>16</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="8" t="s">
         <v>16</v>
       </c>
